--- a/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,89 +436,89 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Integer Overflow and Underflow</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Write to Arbitrary Storage Location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction Order Dependence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Assert Violation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp Dependence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reentrancy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DoS with Failed Call</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Unprotected Ether Withdrawal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction Order Dependence</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Delegatecall to Untrusted Callee</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Requirement Violation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Authorization through tx.origin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Integer Overflow and Underflow</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Assert Violation</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp Dependence</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unchecked Call Return Value</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unprotected SELFDESTRUCT Instruction</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Weak Sources of Randomness from Chain Attributes</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Reentrancy</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Requirement Violation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unprotected SELFDESTRUCT Instruction</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Delegatecall to Untrusted Callee</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>DoS with Failed Call</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Write to Arbitrary Storage Location</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>phishable.sol.json</t>
+          <t>integer_overflow_add.sol.json</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_add.sol.json</t>
+          <t>overflow_simple_add.sol.json</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,14 +606,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>list_dos.sol.json</t>
+          <t>arbitrary_location_write_simple.sol.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>overflow_single_tx.sol.json</t>
+          <t>auction.sol.json</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>lottery.sol.json</t>
+          <t>crypto_roulette.sol.json</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -753,11 +753,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>simple_dao.sol.json</t>
+          <t>etherstore.sol.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -802,35 +802,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_simple.sol.json</t>
+          <t>ether_lotto.sol.json</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>governmental_survey.sol.json</t>
+          <t>eth_tx_order_dependence_minimal.sol.json</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
+          <t>FibonacciBalance.sol.json</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -910,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>smart_billions.sol.json</t>
+          <t>governmental_survey.sol.json</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -965,22 +965,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
+          <t>guess_the_random_number.sol.json</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1047,17 +1047,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_dao.sol.json</t>
+          <t>incorrect_constructor_name1.sol.json</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1096,17 +1096,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>auction.sol.json</t>
+          <t>incorrect_constructor_name2.sol.json</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>simple_suicide.sol.json</t>
+          <t>incorrect_constructor_name3.sol.json</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FibonacciBalance.sol.json</t>
+          <t>integer_overflow_1.sol.json</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1243,17 +1243,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mycontract.sol.json</t>
+          <t>overflow_single_tx.sol.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>modifier_reentrancy.sol.json</t>
+          <t>phishable.sol.json</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1341,14 +1341,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>lotto.sol.json</t>
+          <t>proxy.sol.json</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>king_of_the_ether_throne.sol.json</t>
+          <t>reentrancy_dao.sol.json</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>crypto_roulette.sol.json</t>
+          <t>reentrancy_simple.sol.json</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1498,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>proxy.sol.json</t>
+          <t>roulette.sol.json</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>spank_chain_payment.sol.json</t>
+          <t>rubixi.sol.json</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1635,11 +1635,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>old_blockhash.sol.json</t>
+          <t>short_address_example.sol.json</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>unchecked_return_value.sol.json</t>
+          <t>simple_dao.sol.json</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1703,16 +1703,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>lucky_doubler.sol.json</t>
+          <t>simple_suicide.sol.json</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1782,20 +1782,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name1.sol.json</t>
+          <t>smart_billions.sol.json</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1825,26 +1825,26 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name2.sol.json</t>
+          <t>spank_chain_payment.sol.json</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>etherstore.sol.json</t>
+          <t>timelock.sol.json</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1978,14 +1978,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>wallet_03_wrong_constructor.sol.json</t>
+          <t>unchecked_return_value.sol.json</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2027,23 +2027,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>etheraffle.sol.json</t>
+          <t>wallet_02_refund_nosub.sol.json</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>short_address_example.sol.json</t>
+          <t>wallet_03_wrong_constructor.sol.json</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2125,23 +2125,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>mapping_write.sol.json</t>
+          <t>wallet_04_confused_sign.sol.json</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2168,17 +2168,17 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>arbitrary_location_write_simple.sol.json</t>
+          <t>integer_overflow_mapping_sym_1.sol.json</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2217,20 +2217,20 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ether_lotto.sol.json</t>
+          <t>integer_overflow_minimal.sol.json</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2272,14 +2272,14 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name3.sol.json</t>
+          <t>integer_overflow_mul.sol.json</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2321,11 +2321,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_1.sol.json</t>
+          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>wallet_02_refund_nosub.sol.json</t>
+          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2419,26 +2419,26 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>roulette.sol.json</t>
+          <t>king_of_the_ether_throne.sol.json</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_minimal.sol.json</t>
+          <t>list_dos.sol.json</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>multiowned_vulnerable.sol.json</t>
+          <t>lottery.sol.json</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2560,23 +2560,23 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>eth_tx_order_dependence_minimal.sol.json</t>
+          <t>lotto.sol.json</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>overflow_simple_add.sol.json</t>
+          <t>lucky_doubler.sol.json</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>timelock.sol.json</t>
+          <t>mapping_write.sol.json</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2674,16 +2674,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>odds_and_evens.sol.json</t>
+          <t>modifier_reentrancy.sol.json</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mapping_sym_1.sol.json</t>
+          <t>multiowned_vulnerable.sol.json</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2811,11 +2811,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>guess_the_random_number.sol.json</t>
+          <t>mycontract.sol.json</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>rubixi.sol.json</t>
+          <t>odds_and_evens.sol.json</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>wallet_04_confused_sign.sol.json</t>
+          <t>old_blockhash.sol.json</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2952,56 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>integer_overflow_mul.sol.json</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
@@ -436,89 +436,89 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unprotected Ether Withdrawal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction Order Dependence</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Authorization through tx.origin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Integer Overflow and Underflow</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Assert Violation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp Dependence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unchecked Call Return Value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Weak Sources of Randomness from Chain Attributes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Reentrancy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Requirement Violation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unprotected SELFDESTRUCT Instruction</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Delegatecall to Untrusted Callee</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DoS with Failed Call</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Write to Arbitrary Storage Location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction Order Dependence</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Assert Violation</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp Dependence</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Reentrancy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DoS with Failed Call</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unprotected Ether Withdrawal</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Delegatecall to Untrusted Callee</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Requirement Violation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Authorization through tx.origin</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unchecked Call Return Value</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Unprotected SELFDESTRUCT Instruction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Weak Sources of Randomness from Chain Attributes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_add.sol.json</t>
+          <t>phishable.sol.json</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>overflow_simple_add.sol.json</t>
+          <t>integer_overflow_add.sol.json</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,14 +606,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>arbitrary_location_write_simple.sol.json</t>
+          <t>list_dos.sol.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>auction.sol.json</t>
+          <t>overflow_single_tx.sol.json</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>crypto_roulette.sol.json</t>
+          <t>lottery.sol.json</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -753,11 +753,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>etherstore.sol.json</t>
+          <t>simple_dao.sol.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -802,35 +802,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ether_lotto.sol.json</t>
+          <t>reentrancy_simple.sol.json</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eth_tx_order_dependence_minimal.sol.json</t>
+          <t>governmental_survey.sol.json</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FibonacciBalance.sol.json</t>
+          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -910,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>governmental_survey.sol.json</t>
+          <t>smart_billions.sol.json</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -965,22 +965,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>guess_the_random_number.sol.json</t>
+          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1047,17 +1047,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name1.sol.json</t>
+          <t>reentrancy_dao.sol.json</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1096,17 +1096,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name2.sol.json</t>
+          <t>auction.sol.json</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name3.sol.json</t>
+          <t>simple_suicide.sol.json</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_1.sol.json</t>
+          <t>FibonacciBalance.sol.json</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1243,17 +1243,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>overflow_single_tx.sol.json</t>
+          <t>mycontract.sol.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>phishable.sol.json</t>
+          <t>modifier_reentrancy.sol.json</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1341,14 +1341,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>proxy.sol.json</t>
+          <t>lotto.sol.json</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1409,17 +1409,17 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_dao.sol.json</t>
+          <t>king_of_the_ether_throne.sol.json</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_simple.sol.json</t>
+          <t>crypto_roulette.sol.json</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1498,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>roulette.sol.json</t>
+          <t>proxy.sol.json</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>rubixi.sol.json</t>
+          <t>spank_chain_payment.sol.json</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1635,11 +1635,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>short_address_example.sol.json</t>
+          <t>old_blockhash.sol.json</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>simple_dao.sol.json</t>
+          <t>unchecked_return_value.sol.json</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1703,16 +1703,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>simple_suicide.sol.json</t>
+          <t>lucky_doubler.sol.json</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1782,20 +1782,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>smart_billions.sol.json</t>
+          <t>incorrect_constructor_name1.sol.json</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1825,26 +1825,26 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>spank_chain_payment.sol.json</t>
+          <t>incorrect_constructor_name2.sol.json</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>timelock.sol.json</t>
+          <t>etherstore.sol.json</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1978,14 +1978,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>unchecked_return_value.sol.json</t>
+          <t>wallet_03_wrong_constructor.sol.json</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>wallet_02_refund_nosub.sol.json</t>
+          <t>short_address_example.sol.json</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2076,23 +2076,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>wallet_03_wrong_constructor.sol.json</t>
+          <t>mapping_write.sol.json</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2119,17 +2119,17 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>wallet_04_confused_sign.sol.json</t>
+          <t>arbitrary_location_write_simple.sol.json</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2168,32 +2168,32 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mapping_sym_1.sol.json</t>
+          <t>ether_lotto.sol.json</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_minimal.sol.json</t>
+          <t>incorrect_constructor_name3.sol.json</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2272,11 +2272,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mul.sol.json</t>
+          <t>integer_overflow_1.sol.json</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
+          <t>wallet_02_refund_nosub.sol.json</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
+          <t>roulette.sol.json</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>king_of_the_ether_throne.sol.json</t>
+          <t>integer_overflow_minimal.sol.json</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2468,23 +2468,23 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>list_dos.sol.json</t>
+          <t>multiowned_vulnerable.sol.json</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>lottery.sol.json</t>
+          <t>eth_tx_order_dependence_minimal.sol.json</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>lotto.sol.json</t>
+          <t>overflow_simple_add.sol.json</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2615,14 +2615,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>lucky_doubler.sol.json</t>
+          <t>timelock.sol.json</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2664,29 +2664,29 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>mapping_write.sol.json</t>
+          <t>odds_and_evens.sol.json</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>modifier_reentrancy.sol.json</t>
+          <t>integer_overflow_mapping_sym_1.sol.json</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2762,17 +2762,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>multiowned_vulnerable.sol.json</t>
+          <t>guess_the_random_number.sol.json</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>mycontract.sol.json</t>
+          <t>rubixi.sol.json</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>odds_and_evens.sol.json</t>
+          <t>wallet_04_confused_sign.sol.json</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2909,11 +2909,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>old_blockhash.sol.json</t>
+          <t>integer_overflow_mul.sol.json</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
@@ -436,89 +436,89 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Integer Overflow and Underflow</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Write to Arbitrary Storage Location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction Order Dependence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Assert Violation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp Dependence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reentrancy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DoS with Failed Call</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Unprotected Ether Withdrawal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction Order Dependence</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Delegatecall to Untrusted Callee</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Requirement Violation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Authorization through tx.origin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Integer Overflow and Underflow</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Assert Violation</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp Dependence</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unchecked Call Return Value</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unprotected SELFDESTRUCT Instruction</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Weak Sources of Randomness from Chain Attributes</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Reentrancy</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Requirement Violation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unprotected SELFDESTRUCT Instruction</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Delegatecall to Untrusted Callee</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>DoS with Failed Call</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Write to Arbitrary Storage Location</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>phishable.sol.json</t>
+          <t>integer_overflow_add.sol.json</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_add.sol.json</t>
+          <t>overflow_simple_add.sol.json</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,14 +606,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>list_dos.sol.json</t>
+          <t>arbitrary_location_write_simple.sol.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>overflow_single_tx.sol.json</t>
+          <t>auction.sol.json</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>lottery.sol.json</t>
+          <t>crypto_roulette.sol.json</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -753,11 +753,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>simple_dao.sol.json</t>
+          <t>etherstore.sol.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -802,35 +802,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_simple.sol.json</t>
+          <t>ether_lotto.sol.json</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>governmental_survey.sol.json</t>
+          <t>eth_tx_order_dependence_minimal.sol.json</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
+          <t>FibonacciBalance.sol.json</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -910,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>smart_billions.sol.json</t>
+          <t>governmental_survey.sol.json</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -965,22 +965,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
+          <t>guess_the_random_number.sol.json</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1047,17 +1047,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>reentrancy_dao.sol.json</t>
+          <t>incorrect_constructor_name1.sol.json</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1096,17 +1096,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>auction.sol.json</t>
+          <t>incorrect_constructor_name2.sol.json</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>simple_suicide.sol.json</t>
+          <t>incorrect_constructor_name3.sol.json</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FibonacciBalance.sol.json</t>
+          <t>integer_overflow_1.sol.json</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1243,17 +1243,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mycontract.sol.json</t>
+          <t>overflow_single_tx.sol.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>modifier_reentrancy.sol.json</t>
+          <t>phishable.sol.json</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1341,14 +1341,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>lotto.sol.json</t>
+          <t>proxy.sol.json</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>king_of_the_ether_throne.sol.json</t>
+          <t>reentrancy_dao.sol.json</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>crypto_roulette.sol.json</t>
+          <t>reentrancy_simple.sol.json</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1498,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>proxy.sol.json</t>
+          <t>roulette.sol.json</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>spank_chain_payment.sol.json</t>
+          <t>rubixi.sol.json</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1635,11 +1635,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>old_blockhash.sol.json</t>
+          <t>short_address_example.sol.json</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>unchecked_return_value.sol.json</t>
+          <t>simple_dao.sol.json</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1703,16 +1703,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>lucky_doubler.sol.json</t>
+          <t>simple_suicide.sol.json</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1782,20 +1782,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name1.sol.json</t>
+          <t>smart_billions.sol.json</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1825,26 +1825,26 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name2.sol.json</t>
+          <t>spank_chain_payment.sol.json</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>etherstore.sol.json</t>
+          <t>timelock.sol.json</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1978,14 +1978,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>wallet_03_wrong_constructor.sol.json</t>
+          <t>unchecked_return_value.sol.json</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>short_address_example.sol.json</t>
+          <t>wallet_02_refund_nosub.sol.json</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2076,23 +2076,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>mapping_write.sol.json</t>
+          <t>wallet_03_wrong_constructor.sol.json</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2119,17 +2119,17 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>arbitrary_location_write_simple.sol.json</t>
+          <t>wallet_04_confused_sign.sol.json</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2168,32 +2168,32 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ether_lotto.sol.json</t>
+          <t>integer_overflow_mapping_sym_1.sol.json</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2223,14 +2223,14 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>incorrect_constructor_name3.sol.json</t>
+          <t>integer_overflow_minimal.sol.json</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2272,11 +2272,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_1.sol.json</t>
+          <t>integer_overflow_mul.sol.json</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>wallet_02_refund_nosub.sol.json</t>
+          <t>integer_overflow_multitx_multifunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>roulette.sol.json</t>
+          <t>integer_overflow_multitx_onefunc_feasible.sol.json</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_minimal.sol.json</t>
+          <t>king_of_the_ether_throne.sol.json</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2468,23 +2468,23 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>multiowned_vulnerable.sol.json</t>
+          <t>list_dos.sol.json</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>eth_tx_order_dependence_minimal.sol.json</t>
+          <t>lottery.sol.json</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>overflow_simple_add.sol.json</t>
+          <t>lotto.sol.json</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2615,14 +2615,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>timelock.sol.json</t>
+          <t>lucky_doubler.sol.json</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2664,29 +2664,29 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>odds_and_evens.sol.json</t>
+          <t>mapping_write.sol.json</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mapping_sym_1.sol.json</t>
+          <t>modifier_reentrancy.sol.json</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2762,17 +2762,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>guess_the_random_number.sol.json</t>
+          <t>multiowned_vulnerable.sol.json</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>rubixi.sol.json</t>
+          <t>mycontract.sol.json</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>wallet_04_confused_sign.sol.json</t>
+          <t>odds_and_evens.sol.json</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2909,11 +2909,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>integer_overflow_mul.sol.json</t>
+          <t>old_blockhash.sol.json</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
+++ b/mythril/0.24.7_smartbugs-curated/results/resultado.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
